--- a/data/MSME Country Indicators - China Summary.xlsx
+++ b/data/MSME Country Indicators - China Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>China</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: SME Associations (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -233,6 +236,12 @@
   </si>
   <si>
     <t>http://www.stats.gov.cn/english/newrelease/statisticalreports/t20030312_70607.htm</t>
+  </si>
+  <si>
+    <t>SAIC</t>
+  </si>
+  <si>
+    <t>State Administration for Industry &amp; Commerce of the People's Republic of China (SAIC), 2013. Available at http://www.saic.gov.cn/zwgk/tjzl/zxtjzl/xxzx/201403/t20140331_143497.html</t>
   </si>
 </sst>
 </file>
@@ -240,7 +249,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -251,6 +260,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -283,26 +298,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -310,7 +328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -326,325 +344,340 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="D12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="D13" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>49</v>
+      <c r="A27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>55</v>
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>58</v>
+      <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>61</v>
+      <c r="A31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+    <row r="43">
+      <c r="A43" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
+    <row r="44">
+      <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>46</v>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A39" r:id="rId1"/>
+    <hyperlink ref="A45" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - China Summary.xlsx
+++ b/data/MSME Country Indicators - China Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>China</t>
   </si>
@@ -68,6 +68,60 @@
   </si>
   <si>
     <t>Source: SAIC, 2013</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;20 Heavy Industry. &lt;br/&gt;&lt;5 Wholesale &lt;br/&gt;&lt;10 Retail, Accmmdtn., RstrnTurnover, Infrmtn., Sftwr., Tenancy.&lt;br/&gt;&lt;20 Transport, Warehouse, Postal&lt;br/&gt;&lt;100 Property management &lt;br/&gt;&lt;10 Other Industries </t>
+  </si>
+  <si>
+    <t>&lt;3Millionlion CnstrcTurnover&lt;br/&gt;&lt;20Millionlion Real Estate&lt;br/&gt;&lt;1Millionlion Leasing and Commercial Services</t>
+  </si>
+  <si>
+    <t>&lt;3Millionlion Heavy Industry. CnstrcTurnover&lt;br/&gt;&lt;10Millionlion Wholesale &lt;br/&gt;&lt;1Millionlion Retail, Warehouse, Postal, Accmmdtn., RstrnTurnover, Infrmtn., Real State, Tenancy.&lt;br/&gt;&lt;0.5Millionlion Sftwr., &lt;br/&gt;&lt;2Millionlion Transport,&lt;br/&gt;&lt;5Millionlion Property management</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=20 Heavy Industry. &lt;br/&gt;&gt;=5 Wholesale &lt;br/&gt;&gt;=10 Retail, Accmmdtn., RstrnTurnover, Infrmtn., Sftwr., Tenancy.&lt;br/&gt;&gt;=20 Transport, Warehouse, Postal&lt;br/&gt;&gt;=100 Property management &lt;br/&gt;&gt;=10 Other Industries </t>
+  </si>
+  <si>
+    <t>&lt;50Millionlion CnstrcTurnover&lt;br/&gt;&lt;50Millionlion Real Estate&lt;br/&gt;&lt; 80Millionlion Leasing and Commercial Services</t>
+  </si>
+  <si>
+    <t>&gt;=3Millionlion Heavy Industry. CnstrcTurnover&lt;br/&gt;&gt;=10Millionlion Wholesale &lt;br/&gt;&gt;=1Millionlion Retail, Warehouse, Postal, Accmmdtn., RstrnTurnover, Infrmtn., Real State, Tenancy.&lt;br/&gt;&gt;=0.5Millionlion Sftwr., &lt;br/&gt;&gt;=2Millionlion Transport,&lt;br/&gt;&gt;=5Millionlion Property management</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=300 Heavy Industry, Transport, Postal, Property management &lt;br/&gt;&gt;=20 Wholesale &lt;br/&gt;&gt;=50 Retail, &lt;br/&gt;&gt;=100 Warehouse, Accmmdtn., RstrnTurnover, Infrmtn., Sftwr., Tenancy.&lt;br/&gt;&gt;=100 Other Industries </t>
+  </si>
+  <si>
+    <t>&lt;800Millionlion CnstrcTurnover&lt;br/&gt;&lt;100Millionlion Real Estate&lt;br/&gt;&lt;120Millionlion Leasing and Commercial Services</t>
+  </si>
+  <si>
+    <t>&gt;=20Millionlion Heavy Industry, Postal, Accmmdtn., RstrnTurnover, &lt;br/&gt;&gt;=60Millionlion CnstrcTurnover&lt;br/&gt;&gt;=50Millionlion Wholesale &lt;br/&gt;&gt;=5Millionlion Retail, &lt;br/&gt;&gt;=10Millionlion Warehouse, Infrmtn., Sftwr., Real State, Property management&lt;br/&gt;&gt;=80Millionlion Tenancy.&lt;br/&gt;&gt;=30Millionlion Transport,</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=1000 Heavy Industry, Transport, Postal, Property management &lt;br/&gt;&gt;=200 Wholesale, Warehouse &lt;br/&gt;&gt;=300 Retail, Accmmdtn., RstrnTurnover, Sftwr., Tenancy.&lt;br/&gt;&gt;=2000 Infrmtn.,&lt;br/&gt;&gt;=300 Other Industries </t>
+  </si>
+  <si>
+    <t>&gt;800Millionlion CnstrcTurnover&lt;br/&gt;&gt;100Millionlion Real Estate&lt;br/&gt;&gt;120Millionlion Leasing and Commercial Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=400Millionlion Heavy Industry, Wholesale, &lt;br/&gt;&gt;=100Millionlion Accmmdtn., RstrnTurnover, Sftwr.&lt;br/&gt;&gt;=800Millionlion CnstrcTurnover&lt;br/&gt;&gt;=200Millionlion Retail, &lt;br/&gt;&gt;=1Billionlion  Infrmtn., &lt;br/&gt;&gt;=2Billionlion Real State&lt;br/&gt;&gt;=50Millionlion Property management&lt;br/&gt;&gt;=1.2Billionlion Tenancy.&lt;br/&gt;&gt;=300Millionlion Transport, Warehouse,</t>
   </si>
   <si>
     <t>Sector Distribution Details</t>
@@ -328,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,82 +466,83 @@
         <v>18</v>
       </c>
     </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
+      <c r="A20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -518,166 +573,232 @@
         <v>45</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>50</v>
+      <c r="A33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>56</v>
+      <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>59</v>
+      <c r="A36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="0" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>68</v>
+      <c r="A41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>71</v>
+      <c r="A42" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>72</v>
+      <c r="A43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>73</v>
+      <c r="A44" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>74</v>
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>75</v>
+      <c r="A49" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A45" r:id="rId1"/>
+    <hyperlink ref="A51" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - China Summary.xlsx
+++ b/data/MSME Country Indicators - China Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>China</t>
   </si>
@@ -292,10 +292,26 @@
     <t>http://www.stats.gov.cn/english/newrelease/statisticalreports/t20030312_70607.htm</t>
   </si>
   <si>
+    <t>Other:</t>
+  </si>
+  <si>
+    <t>China Association for Small &amp; Medium Commercial Enterprises</t>
+  </si>
+  <si>
+    <t>http://www.ca-sme.org/</t>
+  </si>
+  <si>
+    <t>China SME Online</t>
+  </si>
+  <si>
+    <t>http://english.sme.gov.cn/index.htm</t>
+  </si>
+  <si>
     <t>SAIC</t>
   </si>
   <si>
-    <t>State Administration for Industry &amp; Commerce of the People's Republic of China (SAIC), 2013. Available at http://www.saic.gov.cn/zwgk/tjzl/zxtjzl/xxzx/201403/t20140331_143497.html</t>
+    <t>China’s Regulations on the Standards for Classification of Small and Medium-sized Enterprises (the “Regulations”) were jointly promulgated by the Ministry of Industry and Information Technology, the National Bureau of Statistics, the National Development and Reform Commission, and the Ministry of Commerce on June 18, 2011 - See more at: http://www.china-briefing.com/news/2011/07/07/china-issues-classification-standards-for-smes.html#sthash.8zpalSQd.dpuf
+The notion of separating microenterprises from small enterprises is only brought up in 2011 during the revision of Provisions on the Standards for Medium and Small Enterprises.</t>
   </si>
 </sst>
 </file>
@@ -382,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -773,12 +789,12 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="52">
@@ -786,20 +802,72 @@
         <v>65</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A51" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/MSME Country Indicators - China Summary.xlsx
+++ b/data/MSME Country Indicators - China Summary.xlsx
@@ -79,49 +79,99 @@
     <t>Turnover (local currency, unless noted otherwise)</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;20 Heavy Industry. &lt;br/&gt;&lt;5 Wholesale &lt;br/&gt;&lt;10 Retail, Accmmdtn., RstrnTurnover, Infrmtn., Sftwr., Tenancy.&lt;br/&gt;&lt;20 Transport, Warehouse, Postal&lt;br/&gt;&lt;100 Property management &lt;br/&gt;&lt;10 Other Industries </t>
-  </si>
-  <si>
-    <t>&lt;3Millionlion CnstrcTurnover&lt;br/&gt;&lt;20Millionlion Real Estate&lt;br/&gt;&lt;1Millionlion Leasing and Commercial Services</t>
-  </si>
-  <si>
-    <t>&lt;3Millionlion Heavy Industry. CnstrcTurnover&lt;br/&gt;&lt;10Millionlion Wholesale &lt;br/&gt;&lt;1Millionlion Retail, Warehouse, Postal, Accmmdtn., RstrnTurnover, Infrmtn., Real State, Tenancy.&lt;br/&gt;&lt;0.5Millionlion Sftwr., &lt;br/&gt;&lt;2Millionlion Transport,&lt;br/&gt;&lt;5Millionlion Property management</t>
+    <t xml:space="preserve">&lt;20 Heavy Industry. 
+&lt;5 Wholesale 
+&lt;10 Retail, Accmmdtn., RstrnTurnover, Infrmtn., Sftwr., Tenancy.
+&lt;20 Transport, Warehouse, Postal
+&lt;100 Property management 
+&lt;10 Other Industries </t>
+  </si>
+  <si>
+    <t>&lt;3Millionlion CnstrcTurnover
+&lt;20Millionlion Real Estate
+&lt;1Millionlion Leasing and Commercial Services</t>
+  </si>
+  <si>
+    <t>&lt;3Millionlion Heavy Industry. CnstrcTurnover
+&lt;10Millionlion Wholesale 
+&lt;1Millionlion Retail, Warehouse, Postal, Accmmdtn., RstrnTurnover, Infrmtn., Real State, Tenancy.
+&lt;0.5Millionlion Sftwr., 
+&lt;2Millionlion Transport,
+&lt;5Millionlion Property management</t>
   </si>
   <si>
     <t>Small</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;=20 Heavy Industry. &lt;br/&gt;&gt;=5 Wholesale &lt;br/&gt;&gt;=10 Retail, Accmmdtn., RstrnTurnover, Infrmtn., Sftwr., Tenancy.&lt;br/&gt;&gt;=20 Transport, Warehouse, Postal&lt;br/&gt;&gt;=100 Property management &lt;br/&gt;&gt;=10 Other Industries </t>
-  </si>
-  <si>
-    <t>&lt;50Millionlion CnstrcTurnover&lt;br/&gt;&lt;50Millionlion Real Estate&lt;br/&gt;&lt; 80Millionlion Leasing and Commercial Services</t>
-  </si>
-  <si>
-    <t>&gt;=3Millionlion Heavy Industry. CnstrcTurnover&lt;br/&gt;&gt;=10Millionlion Wholesale &lt;br/&gt;&gt;=1Millionlion Retail, Warehouse, Postal, Accmmdtn., RstrnTurnover, Infrmtn., Real State, Tenancy.&lt;br/&gt;&gt;=0.5Millionlion Sftwr., &lt;br/&gt;&gt;=2Millionlion Transport,&lt;br/&gt;&gt;=5Millionlion Property management</t>
+    <t xml:space="preserve">&gt;=20 Heavy Industry. 
+&gt;=5 Wholesale 
+&gt;=10 Retail, Accmmdtn., RstrnTurnover, Infrmtn., Sftwr., Tenancy.
+&gt;=20 Transport, Warehouse, Postal
+&gt;=100 Property management 
+&gt;=10 Other Industries </t>
+  </si>
+  <si>
+    <t>&lt;50Millionlion CnstrcTurnover
+&lt;50Millionlion Real Estate
+&lt; 80Millionlion Leasing and Commercial Services</t>
+  </si>
+  <si>
+    <t>&gt;=3Millionlion Heavy Industry. CnstrcTurnover
+&gt;=10Millionlion Wholesale 
+&gt;=1Millionlion Retail, Warehouse, Postal, Accmmdtn., RstrnTurnover, Infrmtn., Real State, Tenancy.
+&gt;=0.5Millionlion Sftwr., 
+&gt;=2Millionlion Transport,
+&gt;=5Millionlion Property management</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;=300 Heavy Industry, Transport, Postal, Property management &lt;br/&gt;&gt;=20 Wholesale &lt;br/&gt;&gt;=50 Retail, &lt;br/&gt;&gt;=100 Warehouse, Accmmdtn., RstrnTurnover, Infrmtn., Sftwr., Tenancy.&lt;br/&gt;&gt;=100 Other Industries </t>
-  </si>
-  <si>
-    <t>&lt;800Millionlion CnstrcTurnover&lt;br/&gt;&lt;100Millionlion Real Estate&lt;br/&gt;&lt;120Millionlion Leasing and Commercial Services</t>
-  </si>
-  <si>
-    <t>&gt;=20Millionlion Heavy Industry, Postal, Accmmdtn., RstrnTurnover, &lt;br/&gt;&gt;=60Millionlion CnstrcTurnover&lt;br/&gt;&gt;=50Millionlion Wholesale &lt;br/&gt;&gt;=5Millionlion Retail, &lt;br/&gt;&gt;=10Millionlion Warehouse, Infrmtn., Sftwr., Real State, Property management&lt;br/&gt;&gt;=80Millionlion Tenancy.&lt;br/&gt;&gt;=30Millionlion Transport,</t>
+    <t xml:space="preserve">&gt;=300 Heavy Industry, Transport, Postal, Property management 
+&gt;=20 Wholesale 
+&gt;=50 Retail, 
+&gt;=100 Warehouse, Accmmdtn., RstrnTurnover, Infrmtn., Sftwr., Tenancy.
+&gt;=100 Other Industries </t>
+  </si>
+  <si>
+    <t>&lt;800Millionlion CnstrcTurnover
+&lt;100Millionlion Real Estate
+&lt;120Millionlion Leasing and Commercial Services</t>
+  </si>
+  <si>
+    <t>&gt;=20Millionlion Heavy Industry, Postal, Accmmdtn., RstrnTurnover, 
+&gt;=60Millionlion CnstrcTurnover
+&gt;=50Millionlion Wholesale 
+&gt;=5Millionlion Retail, 
+&gt;=10Millionlion Warehouse, Infrmtn., Sftwr., Real State, Property management
+&gt;=80Millionlion Tenancy.
+&gt;=30Millionlion Transport,</t>
   </si>
   <si>
     <t>Large</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;=1000 Heavy Industry, Transport, Postal, Property management &lt;br/&gt;&gt;=200 Wholesale, Warehouse &lt;br/&gt;&gt;=300 Retail, Accmmdtn., RstrnTurnover, Sftwr., Tenancy.&lt;br/&gt;&gt;=2000 Infrmtn.,&lt;br/&gt;&gt;=300 Other Industries </t>
-  </si>
-  <si>
-    <t>&gt;800Millionlion CnstrcTurnover&lt;br/&gt;&gt;100Millionlion Real Estate&lt;br/&gt;&gt;120Millionlion Leasing and Commercial Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=400Millionlion Heavy Industry, Wholesale, &lt;br/&gt;&gt;=100Millionlion Accmmdtn., RstrnTurnover, Sftwr.&lt;br/&gt;&gt;=800Millionlion CnstrcTurnover&lt;br/&gt;&gt;=200Millionlion Retail, &lt;br/&gt;&gt;=1Billionlion  Infrmtn., &lt;br/&gt;&gt;=2Billionlion Real State&lt;br/&gt;&gt;=50Millionlion Property management&lt;br/&gt;&gt;=1.2Billionlion Tenancy.&lt;br/&gt;&gt;=300Millionlion Transport, Warehouse,</t>
+    <t xml:space="preserve">&gt;=1000 Heavy Industry, Transport, Postal, Property management 
+&gt;=200 Wholesale, Warehouse 
+&gt;=300 Retail, Accmmdtn., RstrnTurnover, Sftwr., Tenancy.
+&gt;=2000 Infrmtn.,
+&gt;=300 Other Industries </t>
+  </si>
+  <si>
+    <t>&gt;800Millionlion CnstrcTurnover
+&gt;100Millionlion Real Estate
+&gt;120Millionlion Leasing and Commercial Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=400Millionlion Heavy Industry, Wholesale, 
+&gt;=100Millionlion Accmmdtn., RstrnTurnover, Sftwr.
+&gt;=800Millionlion CnstrcTurnover
+&gt;=200Millionlion Retail, 
+&gt;=1Billionlion  Infrmtn., 
+&gt;=2Billionlion Real State
+&gt;=50Millionlion Property management
+&gt;=1.2Billionlion Tenancy.
+&gt;=300Millionlion Transport, Warehouse,</t>
   </si>
   <si>
     <t>Sector Distribution Details</t>

--- a/data/MSME Country Indicators - China Summary.xlsx
+++ b/data/MSME Country Indicators - China Summary.xlsx
@@ -46,13 +46,13 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>32.8</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>41.5</t>
+    <t>32.84</t>
+  </si>
+  <si>
+    <t>8.66</t>
+  </si>
+  <si>
+    <t>41.51</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
